--- a/biology/Zoologie/Grandilithus_florifer/Grandilithus_florifer.xlsx
+++ b/biology/Zoologie/Grandilithus_florifer/Grandilithus_florifer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grandilithus florifer est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grandilithus florifer est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Hainan en Chine[1]. Elle se rencontre dans le xian de Lingshui[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Hainan en Chine. Elle se rencontre dans le xian de Lingshui.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,38 mm et la femelle paratype 4,46 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,38 mm et la femelle paratype 4,46 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia florifera par Fu, He et Zhang en 2015. Elle est placée dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia florifera par Fu, He et Zhang en 2015. Elle est placée dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fu, He &amp; Zhang, 2015 : « Species of the genus Otacilia from Hainan Island, China (Araneae: Phrurolithidae). » Zoological Systematics, vol. 40, no 4, p. 436-450.</t>
         </is>
